--- a/biology/Médecine/Adénome_festonné_sessile/Adénome_festonné_sessile.xlsx
+++ b/biology/Médecine/Adénome_festonné_sessile/Adénome_festonné_sessile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_festonn%C3%A9_sessile</t>
+          <t>Adénome_festonné_sessile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’adénome festonné sessile (AFS) est un sous-type d'adénome colorectal et de polype festonné colorectal. Il constitue une lésion précurseur de l'adénocarcinome colorectal. Ils siègent principalement dans le côlon droit.
 Ils se présentent comme des lésions planes ou légèrement en relief, souvent étendues et parfois multiples, correspondant alors aux lésions de la polypose hyperplasique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_festonn%C3%A9_sessile</t>
+          <t>Adénome_festonné_sessile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Faible grossissement x24: Adénome festonné sessile.
